--- a/data/Output/xlsx/nsga3/results_autumn_nsga3.xlsx
+++ b/data/Output/xlsx/nsga3/results_autumn_nsga3.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1476993730191752</v>
+        <v>-0.3102236102782091</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1943128528711588</v>
+        <v>0.003511609830582043</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-2.022934734859144</v>
+        <v>-0.03655835111570035</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>2.022934734859144</v>
+        <v>0.03655835111570035</v>
       </c>
       <c r="V2">
         <v>2.764490036231884</v>
@@ -674,7 +674,7 @@
         <v>105.9164436645103</v>
       </c>
       <c r="C3">
-        <v>49.88532632570428</v>
+        <v>59.81720824442149</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3311315400194769</v>
+        <v>0.06528219984543301</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2830965983299604</v>
+        <v>0.1723260399241088</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-2.672829529913857</v>
+        <v>-1.626999868594065</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>2.672829529913857</v>
+        <v>1.626999868594065</v>
       </c>
       <c r="V3">
         <v>2.740370018115942</v>
@@ -745,7 +745,7 @@
         <v>122.2299783243869</v>
       </c>
       <c r="C4">
-        <v>36.52117867613499</v>
+        <v>51.68220890145116</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3936215575485118</v>
+        <v>0.3483097607009766</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3290998325464178</v>
+        <v>0.3102199171932781</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-2.692464132432534</v>
+        <v>-2.538001899746587</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>2.692464132432534</v>
+        <v>2.538001899746587</v>
       </c>
       <c r="V4">
         <v>2.701315217391305</v>
@@ -816,28 +816,28 @@
         <v>89.729705482559</v>
       </c>
       <c r="C5">
-        <v>23.05885801397232</v>
+        <v>38.99219940271823</v>
       </c>
       <c r="D5">
-        <v>-0.003907357758480612</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0001953678879240306</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.1598905791899806</v>
+        <v>-0.280623952189323</v>
       </c>
       <c r="H5">
-        <v>0.0003506060608834572</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05454347968045688</v>
+        <v>0.004383993456098986</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.003907357758480612</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-0.6078642450359836</v>
+        <v>-0.04885777159885044</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>0.6078642450359836</v>
+        <v>0.04885777159885044</v>
       </c>
       <c r="V5">
         <v>2.70391259057971</v>
@@ -887,19 +887,19 @@
         <v>77.99005802293598</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>38.74791054472398</v>
       </c>
       <c r="D6">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.147541984754481</v>
+        <v>-0.2443879286041725</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.003097111546940342</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-0</v>
+        <v>-0.039711619986608</v>
       </c>
       <c r="T6">
         <v>-0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.039711619986608</v>
       </c>
       <c r="V6">
         <v>2.690738224637681</v>
@@ -958,7 +958,7 @@
         <v>103.5154703243746</v>
       </c>
       <c r="C7">
-        <v>67.8544429863008</v>
+        <v>38.54935244479094</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4052321992826949</v>
+        <v>-0.05167717441882491</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3423447960666213</v>
+        <v>0.1519658903576547</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-3.306565078177275</v>
+        <v>-1.467430259851106</v>
       </c>
       <c r="T7">
         <v>-0.000619780219780219</v>
       </c>
       <c r="U7">
-        <v>3.307184858397055</v>
+        <v>1.468050040070886</v>
       </c>
       <c r="V7">
         <v>3.352118206521739</v>
@@ -1029,7 +1029,7 @@
         <v>121.4558228816549</v>
       </c>
       <c r="C8">
-        <v>51.32161759541442</v>
+        <v>31.21220114553541</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5210894724416604</v>
+        <v>0.4280462598895027</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4907182269517836</v>
+        <v>0.4519502217217179</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.844629660673146</v>
+        <v>-3.525435370022786</v>
       </c>
       <c r="T8">
         <v>-0.1956725274725275</v>
       </c>
       <c r="U8">
-        <v>4.040302188145674</v>
+        <v>3.721107897495313</v>
       </c>
       <c r="V8">
         <v>4.505302536231884</v>
@@ -1100,19 +1100,19 @@
         <v>83.50490953228045</v>
       </c>
       <c r="C9">
-        <v>32.09846929204868</v>
+        <v>13.58502429542148</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.504631141470997</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.3252315570735498</v>
       </c>
       <c r="G9">
-        <v>0.2434978284464275</v>
+        <v>-0.8765221351827451</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2869725671177759</v>
+        <v>0.06635029916973001</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.6114993896827655</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5.893131751788231</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-2.030528117247949</v>
+        <v>-0</v>
       </c>
       <c r="T9">
-        <v>-1.406067032967033</v>
+        <v>-0.7945676432842671</v>
       </c>
       <c r="U9">
-        <v>3.436595150214982</v>
+        <v>0.7945676432842671</v>
       </c>
       <c r="V9">
         <v>4.443215126811594</v>
@@ -1171,19 +1171,19 @@
         <v>83.54949562883922</v>
       </c>
       <c r="C10">
-        <v>21.94582870580894</v>
+        <v>46.10818000277646</v>
       </c>
       <c r="D10">
-        <v>9.605719391406105</v>
+        <v>6.460424613588851</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.4802859695703052</v>
+        <v>0.3230212306794426</v>
       </c>
       <c r="G10">
-        <v>-0.8199525260401311</v>
+        <v>-0.5089531785430129</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2428166442371567</v>
+        <v>0.2391949748607684</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01523126554494691</v>
+        <v>0.05857885668394358</v>
       </c>
       <c r="P10">
-        <v>9.590488125861157</v>
+        <v>6.401845756904907</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>-0</v>
       </c>
       <c r="T10">
-        <v>-2.906261042147361</v>
+        <v>-2.862913451008365</v>
       </c>
       <c r="U10">
-        <v>2.906261042147361</v>
+        <v>2.862913451008365</v>
       </c>
       <c r="V10">
         <v>4.400345108695652</v>
@@ -1242,7 +1242,7 @@
         <v>107.5905496651075</v>
       </c>
       <c r="C11">
-        <v>69.97442566283945</v>
+        <v>78.41030307072072</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5661618527588891</v>
+        <v>0.5064483076277337</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4789499920547271</v>
+        <v>0.4540693482500791</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.3388814989658107</v>
+        <v>-0.1076284392677893</v>
       </c>
       <c r="T11">
         <v>-4.112717582417583</v>
       </c>
       <c r="U11">
-        <v>4.451599081383393</v>
+        <v>4.220346021685372</v>
       </c>
       <c r="V11">
         <v>4.518040307971015</v>
@@ -1313,7 +1313,7 @@
         <v>111.4679819417473</v>
       </c>
       <c r="C12">
-        <v>68.2800181680104</v>
+        <v>77.87216087438178</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.723853646854327</v>
+        <v>0.6534817408827137</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6083599183199944</v>
+        <v>0.5790382908318221</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-0.7828682291689848</v>
+        <v>-0.5198184548984184</v>
       </c>
       <c r="T12">
         <v>-4.674841758241758</v>
       </c>
       <c r="U12">
-        <v>5.457709987410743</v>
+        <v>5.194660213140176</v>
       </c>
       <c r="V12">
         <v>5.503898550724638</v>
@@ -1384,7 +1384,7 @@
         <v>140.0245837966475</v>
       </c>
       <c r="C13">
-        <v>64.36567702216549</v>
+        <v>75.2730685998897</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.020780386642359</v>
+        <v>1.011564887143696</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8506563980356648</v>
+        <v>0.846816606577889</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-1.072162446719379</v>
+        <v>-1.044740180188295</v>
       </c>
       <c r="T13">
         <v>-5.002887912087912</v>
       </c>
       <c r="U13">
-        <v>6.075050358807291</v>
+        <v>6.047628092276207</v>
       </c>
       <c r="V13">
         <v>6.075093750000001</v>
@@ -1455,7 +1455,7 @@
         <v>133.8330227159034</v>
       </c>
       <c r="C14">
-        <v>59.00486478856858</v>
+        <v>70.04936769894822</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.015226714740301</v>
+        <v>1.015491394397412</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8529406853121095</v>
+        <v>0.8530509685025724</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.674390377455006</v>
+        <v>-1.675214413169249</v>
       </c>
       <c r="T14">
         <v>-4.69878021978022</v>
       </c>
       <c r="U14">
-        <v>6.373170597235226</v>
+        <v>6.373994632949469</v>
       </c>
       <c r="V14">
         <v>6.424865036231884</v>
@@ -1526,7 +1526,7 @@
         <v>93.56932221264108</v>
       </c>
       <c r="C15">
-        <v>50.63291290129355</v>
+        <v>61.67329563310198</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7050301997083814</v>
+        <v>0.6253477224934187</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5981845461367202</v>
+        <v>0.5649835139638191</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-2.165243765474508</v>
+        <v>-1.810415586881421</v>
       </c>
       <c r="T15">
         <v>-4.227712087912088</v>
       </c>
       <c r="U15">
-        <v>6.392955853386596</v>
+        <v>6.038127674793508</v>
       </c>
       <c r="V15">
         <v>6.50687545289855</v>
@@ -1597,19 +1597,19 @@
         <v>70.86499221514897</v>
       </c>
       <c r="C16">
-        <v>39.80669407392101</v>
+        <v>52.62121769869488</v>
       </c>
       <c r="D16">
-        <v>9.89744647100331</v>
+        <v>7.475756460261024</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.4948723235501655</v>
+        <v>0.3737878230130512</v>
       </c>
       <c r="G16">
-        <v>-0.7961059044110603</v>
+        <v>-0.5901451629441445</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2279888618924624</v>
+        <v>0.2280097693561362</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01802110174389382</v>
+        <v>0.01772606941523147</v>
       </c>
       <c r="P16">
-        <v>9.879425369259415</v>
+        <v>7.458030390845793</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>-0</v>
       </c>
       <c r="T16">
-        <v>-3.217228348805557</v>
+        <v>-3.217523381134219</v>
       </c>
       <c r="U16">
-        <v>3.217228348805557</v>
+        <v>3.217523381134219</v>
       </c>
       <c r="V16">
         <v>5.916798913043478</v>
@@ -1668,7 +1668,7 @@
         <v>166.4434092688318</v>
       </c>
       <c r="C17">
-        <v>89.29392642893755</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8984203893898934</v>
+        <v>0.8796003027776238</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7502411145908053</v>
+        <v>0.7423994118356929</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1716,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-2.911085762226219</v>
+        <v>-2.863972435302911</v>
       </c>
       <c r="T17">
         <v>-1.596398901098901</v>
       </c>
       <c r="U17">
-        <v>4.50748466332512</v>
+        <v>4.460371336401812</v>
       </c>
       <c r="V17">
         <v>4.516841938405797</v>
@@ -1739,7 +1739,7 @@
         <v>128.9514380688834</v>
       </c>
       <c r="C18">
-        <v>74.73849761780646</v>
+        <v>75.68013782348544</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.671920731128878</v>
+        <v>0.6398642749122446</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5606616053067052</v>
+        <v>0.5473047485497745</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-3.855452936831649</v>
+        <v>-3.751872418793567</v>
       </c>
       <c r="T18">
         <v>-0.4923978021978022</v>
       </c>
       <c r="U18">
-        <v>4.347850739029451</v>
+        <v>4.244270220991369</v>
       </c>
       <c r="V18">
         <v>4.353493659420289</v>
@@ -1810,7 +1810,7 @@
         <v>86.09931164964732</v>
       </c>
       <c r="C19">
-        <v>55.46123293364822</v>
+        <v>56.9207757295176</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.09051933436912091</v>
+        <v>-0.4849647841108055</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2945278828244684</v>
+        <v>0.05474283345783239</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-3.386078252360261</v>
+        <v>-0.6010960640895577</v>
       </c>
       <c r="T19">
         <v>-0.03471428571428571</v>
       </c>
       <c r="U19">
-        <v>3.420792538074546</v>
+        <v>0.6358103498038434</v>
       </c>
       <c r="V19">
         <v>5.965471467391303</v>
@@ -1881,28 +1881,28 @@
         <v>99.52787598991144</v>
       </c>
       <c r="C20">
-        <v>38.53084167184691</v>
+        <v>53.91529540906982</v>
       </c>
       <c r="D20">
-        <v>-0.006693099440332695</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.0003346549720166348</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.1455066141825837</v>
+        <v>-0.3314358803587044</v>
       </c>
       <c r="H20">
-        <v>0.000666149971085578</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.368200912409767</v>
+        <v>0.169752435505516</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0.006693099440332695</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>-3.69947523492905</v>
+        <v>-1.705576792603539</v>
       </c>
       <c r="T20">
         <v>-0</v>
       </c>
       <c r="U20">
-        <v>3.69947523492905</v>
+        <v>1.705576792603539</v>
       </c>
       <c r="V20">
         <v>6.186221014492753</v>
@@ -1952,19 +1952,19 @@
         <v>93.60128767093309</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>45.38741144605212</v>
       </c>
       <c r="D21">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>-1.704555195469654</v>
+        <v>-0.2909234520802559</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1410894779829487</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-0</v>
+        <v>-1.507345480961397</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.507345480961397</v>
       </c>
       <c r="V21">
         <v>5.604785778985508</v>
@@ -2023,7 +2023,7 @@
         <v>100.1017244434446</v>
       </c>
       <c r="C22">
-        <v>67.8544429863008</v>
+        <v>37.85068404124514</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.3048280074954252</v>
+        <v>-0.1879398448635849</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3948209127993079</v>
+        <v>0.189500974316387</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-3.944196915632291</v>
+        <v>-1.893084013986703</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>3.944196915632291</v>
+        <v>1.893084013986703</v>
       </c>
       <c r="V22">
         <v>5.350741847826087</v>
@@ -2094,7 +2094,7 @@
         <v>126.6537162367117</v>
       </c>
       <c r="C23">
-        <v>48.13345840813933</v>
+        <v>28.38526397131162</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4228415635639606</v>
+        <v>0.3524813871803485</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4785636807179485</v>
+        <v>0.4492469405581101</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.778520638301117</v>
+        <v>-3.547049023958224</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.778520638301117</v>
+        <v>3.547049023958224</v>
       </c>
       <c r="V23">
         <v>4.774904438405797</v>
@@ -2165,28 +2165,28 @@
         <v>85.12846470743519</v>
       </c>
       <c r="C24">
-        <v>29.24085521663375</v>
+        <v>10.65001885152051</v>
       </c>
       <c r="D24">
-        <v>-0.02378485007911002</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.001189242503955501</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.006385076851480348</v>
+        <v>-0.3513378968690586</v>
       </c>
       <c r="H24">
-        <v>0.002024767770531154</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1553071956646137</v>
+        <v>0.007099609852110451</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.02378485007911002</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-1.82438619324764</v>
+        <v>-0.08339877708954342</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>1.82438619324764</v>
+        <v>0.08339877708954342</v>
       </c>
       <c r="V24">
         <v>3.606088768115942</v>
@@ -2236,7 +2236,7 @@
         <v>99.71725698729442</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10.23302496607279</v>
       </c>
       <c r="D25">
         <v>0</v>
